--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2181142.496708875</v>
+        <v>2178765.869761509</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9712782.127173908</v>
+        <v>9712782.127173906</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>405.116655408934</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -868,19 +868,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>169.9611158291189</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>83.96419053910869</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>56.70882917873461</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>58.02993390906929</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>24.08537472061678</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795874916</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>258.2524625653392</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.23021146256228</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>118.1105776721293</v>
+        <v>218.6880288329283</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>14.76058440587532</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740365</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1819,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>212.3267021497095</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.2078024559151</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>214.85520491952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>121.8000472740347</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>60.64713141731118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1669.762144392295</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1300.799627451883</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>942.533928845133</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>942.533928845133</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.762144392295</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.762144392295</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>937.5665200750353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>768.6303371471284</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1165.556070973053</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1165.556070973053</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>937.5665200750353</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>937.5665200750353</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1992.424186004858</v>
+        <v>1589.988596769089</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>835.2378272304329</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>828.2923264812295</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>412.5875762055183</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>108.5284322030886</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816094</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872926</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926626</v>
+        <v>1980.127928744901</v>
       </c>
       <c r="Y5" t="n">
-        <v>2379.02402606898</v>
+        <v>1589.988596769089</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042427</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P6" t="n">
-        <v>2262.298126874724</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.272596813117</v>
+        <v>349.276519562732</v>
       </c>
       <c r="C7" t="n">
-        <v>648.272596813117</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D7" t="n">
-        <v>498.1559574007813</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146468</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306329</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306329</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>798.0586496042795</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541374</v>
+        <v>798.0586496042795</v>
       </c>
       <c r="X7" t="n">
-        <v>829.9210616433568</v>
+        <v>570.0690987062621</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.9210616433568</v>
+        <v>349.276519562732</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852.996172847234</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C8" t="n">
-        <v>1484.033655906822</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D8" t="n">
-        <v>1484.033655906822</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>1098.245403308578</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2007.354797762287</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847234</v>
+        <v>1654.586142492173</v>
       </c>
       <c r="X8" t="n">
-        <v>1852.996172847234</v>
+        <v>1281.120384231093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1852.996172847234</v>
+        <v>890.9810522552812</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217537</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1590.463386300793</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1922.533821476954</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.0729169938204</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V10" t="n">
-        <v>896.0145465323091</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W10" t="n">
-        <v>776.7109327220775</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X10" t="n">
-        <v>548.7213818240601</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y10" t="n">
-        <v>548.7213818240601</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>216.8470138298269</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.8470138298269</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949665</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,16 +6783,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,19 +7494,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>149.8982754122182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013357</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70.03064962107925</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976841</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.5911984019041</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>30.36925650589461</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>280.1079373569266</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>152.4862366927525</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218739</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>73.85777223953622</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.62417772602215</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.63391537253447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.85445046951898</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>84.77391660562006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>856017.4546923235</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>856017.4546923236</v>
+        <v>856017.4546923235</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.284775254</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
@@ -26335,25 +26335,25 @@
         <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731942</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731994</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26445,16 +26445,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426732039</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731994</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746752.2731260227</v>
+        <v>-746752.2731260231</v>
       </c>
       <c r="C6" t="n">
-        <v>367999.5104498967</v>
+        <v>367999.5104498969</v>
       </c>
       <c r="D6" t="n">
-        <v>367999.5104498965</v>
+        <v>367999.5104498969</v>
       </c>
       <c r="E6" t="n">
-        <v>-31543.99909993037</v>
+        <v>-31578.73702536656</v>
       </c>
       <c r="F6" t="n">
-        <v>475941.4425246153</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="G6" t="n">
-        <v>475941.4425246153</v>
+        <v>475906.7045991796</v>
       </c>
       <c r="H6" t="n">
-        <v>475941.4425246153</v>
+        <v>475906.7045991796</v>
       </c>
       <c r="I6" t="n">
-        <v>475941.4425246155</v>
+        <v>475906.7045991799</v>
       </c>
       <c r="J6" t="n">
-        <v>308336.2647146328</v>
+        <v>308301.5267891972</v>
       </c>
       <c r="K6" t="n">
-        <v>475941.4425246154</v>
+        <v>475906.7045991796</v>
       </c>
       <c r="L6" t="n">
-        <v>475941.4425246152</v>
+        <v>475906.7045991795</v>
       </c>
       <c r="M6" t="n">
-        <v>343334.1487956884</v>
+        <v>343299.4108702529</v>
       </c>
       <c r="N6" t="n">
-        <v>475941.4425246153</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="O6" t="n">
-        <v>475941.4425246153</v>
+        <v>475906.7045991798</v>
       </c>
       <c r="P6" t="n">
-        <v>475941.4425246154</v>
+        <v>475906.7045991793</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7593903327774</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>82.17652749470909</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>141.7454648499285</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9.001083493735884</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>328.2080047469843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>122.3485879259524</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460824476</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>148.6235831763722</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>108.4279735176715</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,10 +28059,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>168.4124206644618</v>
+        <v>67.83496950366268</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.809644481579793e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>377.6350660745956</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32728,7 +32728,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>223.6976288294628</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,10 +33503,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>724.9681211658385</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>545.3845241768652</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391859</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>405.4553316172022</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35027,13 +35027,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>347.9240135433006</v>
       </c>
       <c r="Q6" t="n">
-        <v>303.0719207327586</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>421.5663560987685</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>529.787466480459</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>235.5010321525773</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899063</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>81.10138438501835</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>582.8340872438201</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>406.830144396991</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
